--- a/biology/Botanique/Cordaites/Cordaites.xlsx
+++ b/biology/Botanique/Cordaites/Cordaites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cordaites sont un genre éteint de plantes appartenant au groupe des gymnospermes fossiles.
 Le genre Cordaites (Unger, 1850) a été utilisé pour nommer le feuillage de plantes de l'ordre des Cordaitales.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unger les nomma ainsi en hommage au médecin, botaniste et mycologue tchèque August Carl Joseph Corda[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unger les nomma ainsi en hommage au médecin, botaniste et mycologue tchèque August Carl Joseph Corda.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En compression, les feuilles de Cordaites ressemblent à de longs rubans, avec des nervures parallèles qui peuvent occasionnellement se dichotomiser. Les plus grandes connues atteignaient 1 m de long et 15 cm de large mais la plupart ont 20-30 cm de long. L'étude de la cuticule de ces feuilles a révélé que dans la majorité des espèces les stomates étaient portés uniquement sur la face inférieure des feuilles. Il existe aussi des feuilles de Cordaites anatomiquement conservées (= perminéralisées). Les feuilles étaient disposées en hélice sur les branches.
 </t>
@@ -575,7 +591,9 @@
           <t>Port et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cordaites poussait dans la zone tropicale et présentait plusieurs types d’écologie.
 On peut distinguer des formes de taille moyenne qui poussaient dans des zones humides (d'eau douce ou saumâtre) et des formes plus grandes qui peuplaient les zones plus élevées et bien drainées. Ces plantes ont participé à la formation des grands gisements de houille du Carbonifère.
